--- a/data/trans_bre/P16A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Habitat-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.566292749514391</v>
+        <v>-1.325559743207605</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.320890487210055</v>
+        <v>1.213143377878161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.792564016018088</v>
+        <v>3.068887022960802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5598910031098587</v>
+        <v>0.4398152037312609</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4228200352815629</v>
+        <v>-0.391181963265457</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2207578634303533</v>
+        <v>0.2230957694470081</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7708504227014499</v>
+        <v>0.8516498467473935</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.08179650397893232</v>
+        <v>0.06595312598122841</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.037762606109145</v>
+        <v>2.234053966973418</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.212417078571123</v>
+        <v>6.152341476455393</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.730383620459111</v>
+        <v>7.832288671599455</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.612624562753555</v>
+        <v>4.716885758391071</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9496555811826235</v>
+        <v>1.097044820563897</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.487297415721954</v>
+        <v>2.307971928514069</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.564089692189214</v>
+        <v>5.321718539529105</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.3843042624994</v>
+        <v>1.468560729295075</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.594656294495936</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.990347274162133</v>
+        <v>6.990347274162135</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.249645758754559</v>
@@ -749,7 +749,7 @@
         <v>1.169057677300838</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2.227652670341061</v>
+        <v>2.227652670341062</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.343508951657499</v>
+        <v>1.456158384443793</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.093804093129568</v>
+        <v>2.982075049278964</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.732093244623447</v>
+        <v>1.757577026795729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.019017549544206</v>
+        <v>5.198324756004357</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3447714309433579</v>
+        <v>0.3978519952969914</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8258048592951467</v>
+        <v>0.7689357156890952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4230280868653923</v>
+        <v>0.4329035272809298</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>1.208161836744923</v>
+        <v>1.212971356480254</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.94184539056001</v>
+        <v>5.119185747422895</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.318551349014197</v>
+        <v>7.257586520879973</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.354252790519446</v>
+        <v>5.656066577957421</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.690175943517897</v>
+        <v>8.799381028426984</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.569374524012542</v>
+        <v>2.792406515215121</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.284364180884409</v>
+        <v>3.25062300416135</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.166421098928383</v>
+        <v>2.309189107564245</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.669726618028514</v>
+        <v>3.806333757891152</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.441560367722649</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.483748111845149</v>
+        <v>2.48374811184515</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>2.509614417036861</v>
@@ -849,7 +849,7 @@
         <v>0.8770108983850181</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5066692640384716</v>
+        <v>0.5066692640384718</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.961877025237573</v>
+        <v>2.937412923113734</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0991662964533167</v>
+        <v>0.3637690793621028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8200212130473113</v>
+        <v>0.9581274180932208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2053993457761021</v>
+        <v>0.3141034754537004</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9210114829120766</v>
+        <v>0.9920711863251583</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007276247098588831</v>
+        <v>0.04341343387363313</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1480563682513397</v>
+        <v>0.1872850531029204</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.03254426682327312</v>
+        <v>0.02947221872936275</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.026561049972919</v>
+        <v>7.236093777205796</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.063598413005073</v>
+        <v>5.170496657918107</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.782187159972682</v>
+        <v>5.589271260682207</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.694818058105472</v>
+        <v>4.513489140641219</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.613429222592563</v>
+        <v>5.834775775433657</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.463861707655269</v>
+        <v>2.453322156405205</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.0266808544721</v>
+        <v>1.841405039621701</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.262141104717217</v>
+        <v>1.153266657230264</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6895885289190097</v>
+        <v>0.8068673489632257</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.165624802688501</v>
+        <v>1.124518853005536</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.085214141431618</v>
+        <v>2.106106776708411</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.632466104401264</v>
+        <v>1.7720435660014</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1552956449226473</v>
+        <v>0.1918762765427033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2016137142688663</v>
+        <v>0.2275613423907275</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3640799916550634</v>
+        <v>0.388656475451999</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2564729117646842</v>
+        <v>0.3114812137028061</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.129829114466601</v>
+        <v>4.340159009019426</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.319183105171509</v>
+        <v>5.312890203088578</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.711555112660632</v>
+        <v>6.574490312167572</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.564447359360842</v>
+        <v>5.505199881334775</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.89478833473471</v>
+        <v>1.983368263879951</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.843813136570179</v>
+        <v>1.91292281018959</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.92100510506806</v>
+        <v>1.934430981020922</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.459624530568105</v>
+        <v>1.466871684394021</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.154661994065215</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.156656878102508</v>
+        <v>4.156656878102505</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.065140725873233</v>
@@ -1049,7 +1049,7 @@
         <v>1.193449409625744</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9756906307278709</v>
+        <v>0.9756906307278705</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.807313727424075</v>
+        <v>1.721029970504768</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.706741243887876</v>
+        <v>2.627239253978823</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.040328117700129</v>
+        <v>3.043760138922582</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.073443312244053</v>
+        <v>3.227932296635751</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.577277641997617</v>
+        <v>0.5739642525917306</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.670379700139957</v>
+        <v>0.644586805955855</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7635247494268453</v>
+        <v>0.7740481259428803</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.6317549387052059</v>
+        <v>0.6644920788394101</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.700278503334968</v>
+        <v>3.664700605021114</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.926027917135909</v>
+        <v>4.962389210967966</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.254336593976269</v>
+        <v>5.268577326546982</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.079570758534027</v>
+        <v>5.211794076607769</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.647338348732777</v>
+        <v>1.662175201712726</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.712798041391111</v>
+        <v>1.746616182366771</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.736983286286212</v>
+        <v>1.731223294433643</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.323802357727107</v>
+        <v>1.386162305954521</v>
       </c>
     </row>
     <row r="19">
